--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -5454,7 +5454,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>343.9619895043615</v>
+        <v>343.9619895043616</v>
       </c>
       <c r="C300">
         <v>387.6733255779776</v>
